--- a/VT_ModelPL_SUPPLY_v1.xlsx
+++ b/VT_ModelPL_SUPPLY_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\H2-model-v02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE5C812-C0F5-4E2A-AA57-1FBB66CFE696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A87D248-19EB-4814-B806-736C98867920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,8 @@
     <sheet name="SEC_Processes" sheetId="127" r:id="rId2"/>
     <sheet name="MIN_IMP" sheetId="133" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
+    <definedName name="FID_1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -3179,229 +3173,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Wydobycie i sprzedaz wegla kami"/>
-      <sheetName val="WK"/>
-      <sheetName val="biom"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="6">
-          <cell r="B6">
-            <v>33.305052330677292</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="archiwum_tab_a_2020"/>
-      <sheetName val="Arkusz1"/>
-      <sheetName val="Arkusz2"/>
-      <sheetName val="archiwum_tab_a_2021"/>
-      <sheetName val="archiwum_tab_a_2023"/>
-      <sheetName val="archiwum_tab_a_2024"/>
-      <sheetName val="Arkusz3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="F1">
-            <v>3.8978243137254918</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="D3">
-            <v>4.566975196850394</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="E3">
-            <v>3.9799075396825372</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="FUEL COST"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="25">
-          <cell r="E25">
-            <v>7.7638578346456697</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Alicja Ossera" id="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" userId="95a19d6e4dcee85b" providerId="Windows Live"/>
@@ -4725,7 +4496,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5093,7 +4864,6 @@
         <v>PRI_BIOM</v>
       </c>
       <c r="E11" s="76">
-        <f>[2]biom!$B$6</f>
         <v>33.305052330677292</v>
       </c>
       <c r="F11" s="76">
@@ -5191,7 +4961,6 @@
         <v>145</v>
       </c>
       <c r="K15" s="92">
-        <f>[3]archiwum_tab_a_2024!$E$3</f>
         <v>3.9799075396825372</v>
       </c>
       <c r="L15" s="92"/>
@@ -5210,7 +4979,6 @@
         <v>PRI_URAN</v>
       </c>
       <c r="E16" s="81">
-        <f>'[4]FUEL COST'!$E$25</f>
         <v>7.7638578346456697</v>
       </c>
       <c r="F16" s="81"/>
@@ -5260,26 +5028,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -5522,10 +5270,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C961AC07-2618-4962-AA97-59E9F5C2C982}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5542,20 +5321,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C961AC07-2618-4962-AA97-59E9F5C2C982}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_ModelPL_SUPPLY_v1.xlsx
+++ b/VT_ModelPL_SUPPLY_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\H2-model-v02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\HYDROGEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A87D248-19EB-4814-B806-736C98867920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EFE22D-6726-4365-8E20-23A788C7FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,7 +801,7 @@
     <author>tc={BF09C4E7-02AD-4C77-83ED-F1023CBBDE68}</author>
   </authors>
   <commentList>
-    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{540E8EA3-F972-48E8-9F6A-5E7C0DED24FF}">
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{540E8EA3-F972-48E8-9F6A-5E7C0DED24FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -809,7 +809,7 @@
     KOBIZE</t>
       </text>
     </comment>
-    <comment ref="L8" authorId="1" shapeId="0" xr:uid="{1398D932-AC54-4E48-BDD3-B91E469C6D1E}">
+    <comment ref="M8" authorId="1" shapeId="0" xr:uid="{1398D932-AC54-4E48-BDD3-B91E469C6D1E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -817,7 +817,7 @@
     Dynamiczny raport górnictwa wk</t>
       </text>
     </comment>
-    <comment ref="N8" authorId="2" shapeId="0" xr:uid="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -835,7 +835,7 @@
     Dobre źródło ale z 2009! Link po prawej w tabeli</t>
       </text>
     </comment>
-    <comment ref="J9" authorId="4" shapeId="0" xr:uid="{DCBAF300-A978-4B2D-AC25-360CF3E68B1B}">
+    <comment ref="K9" authorId="4" shapeId="0" xr:uid="{DCBAF300-A978-4B2D-AC25-360CF3E68B1B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -843,7 +843,7 @@
     KOBIZE</t>
       </text>
     </comment>
-    <comment ref="L9" authorId="5" shapeId="0" xr:uid="{A802C731-2EE1-48BB-8D4E-3E18904F2E13}">
+    <comment ref="M9" authorId="5" shapeId="0" xr:uid="{A802C731-2EE1-48BB-8D4E-3E18904F2E13}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -851,7 +851,7 @@
     Pgi.gov.pl</t>
       </text>
     </comment>
-    <comment ref="N9" authorId="6" shapeId="0" xr:uid="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
+    <comment ref="O9" authorId="6" shapeId="0" xr:uid="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -869,7 +869,7 @@
     Tak jak ENTSO 2030 bo brak jawnych danych</t>
       </text>
     </comment>
-    <comment ref="K10" authorId="8" shapeId="0" xr:uid="{0D70175B-8F33-47F5-AF67-DB3D661DFC56}">
+    <comment ref="L10" authorId="8" shapeId="0" xr:uid="{0D70175B-8F33-47F5-AF67-DB3D661DFC56}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -877,7 +877,7 @@
     KOBIZE</t>
       </text>
     </comment>
-    <comment ref="M10" authorId="9" shapeId="0" xr:uid="{2561E92C-C8CF-4059-9A9E-3F5A21A12DD5}">
+    <comment ref="N10" authorId="9" shapeId="0" xr:uid="{2561E92C-C8CF-4059-9A9E-3F5A21A12DD5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -893,7 +893,7 @@
     magazynbiomasa</t>
       </text>
     </comment>
-    <comment ref="F11" authorId="11" shapeId="0" xr:uid="{D4FAB75F-6F84-4CA1-A075-EF00C33005E9}">
+    <comment ref="G11" authorId="11" shapeId="0" xr:uid="{D4FAB75F-6F84-4CA1-A075-EF00C33005E9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -901,7 +901,7 @@
     Magazyn biomasa.pl</t>
       </text>
     </comment>
-    <comment ref="J12" authorId="12" shapeId="0" xr:uid="{0474E7C7-1B26-474F-9622-2BD136CDE7E9}">
+    <comment ref="K12" authorId="12" shapeId="0" xr:uid="{0474E7C7-1B26-474F-9622-2BD136CDE7E9}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -918,7 +918,7 @@
     Cena z ENTSO z TYNP, przyjęta jak dla 2030</t>
       </text>
     </comment>
-    <comment ref="F16" authorId="14" shapeId="0" xr:uid="{4A6B8365-E407-4760-AFC3-33C17EEE8E7A}">
+    <comment ref="G16" authorId="14" shapeId="0" xr:uid="{4A6B8365-E407-4760-AFC3-33C17EEE8E7A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -926,7 +926,7 @@
     Nie ograniczaliśmy w modelu dla Shella… brak danych zupełnie na ten temat...</t>
       </text>
     </comment>
-    <comment ref="I16" authorId="15" shapeId="0" xr:uid="{BF09C4E7-02AD-4C77-83ED-F1023CBBDE68}">
+    <comment ref="J16" authorId="15" shapeId="0" xr:uid="{BF09C4E7-02AD-4C77-83ED-F1023CBBDE68}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -3527,28 +3527,28 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J8" dT="2025-06-30T18:02:30.81" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{540E8EA3-F972-48E8-9F6A-5E7C0DED24FF}">
+  <threadedComment ref="K8" dT="2025-06-30T18:02:30.81" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{540E8EA3-F972-48E8-9F6A-5E7C0DED24FF}">
     <text>KOBIZE</text>
   </threadedComment>
-  <threadedComment ref="L8" dT="2025-06-30T18:18:16.14" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{1398D932-AC54-4E48-BDD3-B91E469C6D1E}">
+  <threadedComment ref="M8" dT="2025-06-30T18:18:16.14" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{1398D932-AC54-4E48-BDD3-B91E469C6D1E}">
     <text>Dynamiczny raport górnictwa wk</text>
   </threadedComment>
-  <threadedComment ref="N8" dT="2025-06-30T18:47:37.41" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
+  <threadedComment ref="O8" dT="2025-06-30T18:47:37.41" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
     <text>Forum energii</text>
   </threadedComment>
-  <threadedComment ref="N8" dT="2025-07-01T16:28:29.24" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{2730D4D6-8EC1-474B-AD53-6E03EA6D1E1B}" parentId="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
+  <threadedComment ref="O8" dT="2025-07-01T16:28:29.24" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{2730D4D6-8EC1-474B-AD53-6E03EA6D1E1B}" parentId="{5D671AC0-8134-49B1-8B6D-783CDE49016A}">
     <text>2024</text>
   </threadedComment>
   <threadedComment ref="E9" dT="2025-07-01T16:37:23.37" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{AC399B7F-CA59-4F4B-A772-9F163718F16E}">
     <text>Dobre źródło ale z 2009! Link po prawej w tabeli</text>
   </threadedComment>
-  <threadedComment ref="J9" dT="2025-06-30T18:27:42.39" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{DCBAF300-A978-4B2D-AC25-360CF3E68B1B}">
+  <threadedComment ref="K9" dT="2025-06-30T18:27:42.39" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{DCBAF300-A978-4B2D-AC25-360CF3E68B1B}">
     <text>KOBIZE</text>
   </threadedComment>
-  <threadedComment ref="L9" dT="2025-06-30T18:18:26.97" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{A802C731-2EE1-48BB-8D4E-3E18904F2E13}">
+  <threadedComment ref="M9" dT="2025-06-30T18:18:26.97" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{A802C731-2EE1-48BB-8D4E-3E18904F2E13}">
     <text>Pgi.gov.pl</text>
   </threadedComment>
-  <threadedComment ref="N9" dT="2025-07-01T16:27:58.61" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
+  <threadedComment ref="O9" dT="2025-07-01T16:27:58.61" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
     <text>https://se.min-pan.krakow.pl/pelne_teksty23/k23z_pe/k23_czopek_trzaskus_z.pdf</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -3557,25 +3557,25 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="N9" dT="2025-07-01T16:28:37.99" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{C167D862-F31F-4B89-94D8-D8A7D4AE61BC}" parentId="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
+  <threadedComment ref="O9" dT="2025-07-01T16:28:37.99" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{C167D862-F31F-4B89-94D8-D8A7D4AE61BC}" parentId="{5CC8B6E8-38CC-4EDE-A045-21A09B7DD1C9}">
     <text>2009...</text>
   </threadedComment>
   <threadedComment ref="E10" dT="2025-06-30T18:36:36.56" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{BFD9A748-F3AC-4746-B568-2649BB3D7DAE}">
     <text>Tak jak ENTSO 2030 bo brak jawnych danych</text>
   </threadedComment>
-  <threadedComment ref="K10" dT="2025-06-30T18:27:54.39" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{0D70175B-8F33-47F5-AF67-DB3D661DFC56}">
+  <threadedComment ref="L10" dT="2025-06-30T18:27:54.39" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{0D70175B-8F33-47F5-AF67-DB3D661DFC56}">
     <text>KOBIZE</text>
   </threadedComment>
-  <threadedComment ref="M10" dT="2025-06-30T18:28:16.66" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{2561E92C-C8CF-4059-9A9E-3F5A21A12DD5}">
+  <threadedComment ref="N10" dT="2025-06-30T18:28:16.66" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{2561E92C-C8CF-4059-9A9E-3F5A21A12DD5}">
     <text>pgi.gov.pl</text>
   </threadedComment>
   <threadedComment ref="E11" dT="2025-06-30T18:31:04.74" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{D6AC3D91-27B7-4254-A5A4-1E26D77A7AC0}">
     <text>magazynbiomasa</text>
   </threadedComment>
-  <threadedComment ref="F11" dT="2025-06-30T18:12:24.35" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{D4FAB75F-6F84-4CA1-A075-EF00C33005E9}">
+  <threadedComment ref="G11" dT="2025-06-30T18:12:24.35" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{D4FAB75F-6F84-4CA1-A075-EF00C33005E9}">
     <text>Magazyn biomasa.pl</text>
   </threadedComment>
-  <threadedComment ref="J12" dT="2025-07-01T16:57:20.07" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{0474E7C7-1B26-474F-9622-2BD136CDE7E9}">
+  <threadedComment ref="K12" dT="2025-07-01T16:57:20.07" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{0474E7C7-1B26-474F-9622-2BD136CDE7E9}">
     <text xml:space="preserve">https://web.archive.org/web/20081211234615/http://petroleum.berkeley.edu/patzek/ce24/Spring2003/heatvalues.htm
 </text>
     <extLst>
@@ -3588,10 +3588,10 @@
   <threadedComment ref="E16" dT="2025-07-01T20:08:44.75" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{516392F4-0C77-4D0D-9B33-019C52D407A7}">
     <text>Cena z ENTSO z TYNP, przyjęta jak dla 2030</text>
   </threadedComment>
-  <threadedComment ref="F16" dT="2025-07-01T17:12:42.15" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{4A6B8365-E407-4760-AFC3-33C17EEE8E7A}">
+  <threadedComment ref="G16" dT="2025-07-01T17:12:42.15" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{4A6B8365-E407-4760-AFC3-33C17EEE8E7A}">
     <text>Nie ograniczaliśmy w modelu dla Shella… brak danych zupełnie na ten temat...</text>
   </threadedComment>
-  <threadedComment ref="I16" dT="2025-07-01T17:13:03.78" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{BF09C4E7-02AD-4C77-83ED-F1023CBBDE68}" done="1">
+  <threadedComment ref="J16" dT="2025-07-01T17:13:03.78" personId="{57B354BE-67BE-4CD2-962A-5AADA6FDF0F2}" id="{BF09C4E7-02AD-4C77-83ED-F1023CBBDE68}" done="1">
     <text>https://www-ans-org.translate.goog/news/2025-01-07/article-6671/uranium-spot-price-closes-out-2024-at-7263lb/?_x_tr_sl=en&amp;_x_tr_tl=pl&amp;_x_tr_hl=pl&amp;_x_tr_pto=sge#:~:text=The%20uranium%20market%20closed%20out,to%20global%20uranium%20provider%20Cameco.</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -4493,10 +4493,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4504,16 +4504,16 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -4535,8 +4535,9 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="1:22" ht="18">
+      <c r="W1" s="5"/>
+    </row>
+    <row r="2" spans="1:23" ht="18">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
         <v>118</v>
@@ -4544,7 +4545,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -4561,8 +4562,9 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="5"/>
@@ -4570,9 +4572,9 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -4585,16 +4587,17 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="D4" s="17" t="s">
         <v>119</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -4609,8 +4612,9 @@
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W4" s="12"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="25" t="s">
         <v>50</v>
@@ -4624,13 +4628,13 @@
       <c r="E5" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -4642,11 +4646,12 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="5"/>
+      <c r="T5" s="13"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" ht="47.25" customHeight="1">
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" ht="47.25" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="26" t="s">
         <v>125</v>
@@ -4660,17 +4665,17 @@
       <c r="E6" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="H6" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -4681,8 +4686,9 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" ht="47.25" customHeight="1" thickBot="1">
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:23" ht="47.25" customHeight="1" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="27" t="s">
         <v>130</v>
@@ -4696,41 +4702,42 @@
       <c r="E7" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="H7" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="L7" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="M7" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="M7" s="87" t="s">
+      <c r="N7" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="O7" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="87" t="s">
+      <c r="P7" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="B8" s="55" t="str">
         <f>SEC_Processes!D8</f>
         <v>MIN_HC</v>
@@ -4744,34 +4751,35 @@
         <v>PRI_HC</v>
       </c>
       <c r="E8" s="62">
-        <f>O8/1000</f>
+        <f>P8/1000</f>
         <v>38.361266294227185</v>
       </c>
-      <c r="F8" s="62">
-        <f>(J8*1000*L8)*10^-9</f>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62">
+        <f>(K8*1000*M8)*10^-9</f>
         <v>945.01537092000001</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="I8" s="88" t="s">
+      <c r="H8" s="57"/>
+      <c r="J8" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="84">
+      <c r="K8" s="84">
         <v>21.48</v>
       </c>
-      <c r="K8" s="84"/>
-      <c r="L8" s="83">
+      <c r="L8" s="84"/>
+      <c r="M8" s="83">
         <v>43995129</v>
       </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="84">
+      <c r="N8" s="83"/>
+      <c r="O8" s="84">
         <v>824</v>
       </c>
-      <c r="O8" s="84">
-        <f>N8/J8*1000</f>
+      <c r="P8" s="84">
+        <f>O8/K8*1000</f>
         <v>38361.266294227185</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="B9" s="60" t="str">
         <f>SEC_Processes!D9</f>
         <v>MIN_LIG</v>
@@ -4785,35 +4793,36 @@
         <v>PRI_BC</v>
       </c>
       <c r="E9" s="76">
-        <f>O9/1000</f>
+        <f>P9/1000</f>
         <v>6.1425970873786397</v>
       </c>
-      <c r="F9" s="76">
-        <f>(J9*1000*L9)*10^-9</f>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76">
+        <f>(K9*1000*M9)*10^-9</f>
         <v>358.11040000000003</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="I9" s="88" t="s">
+      <c r="H9" s="61"/>
+      <c r="J9" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="83">
+      <c r="K9" s="83">
         <v>8.24</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83">
+      <c r="L9" s="83"/>
+      <c r="M9" s="83">
         <v>43460000</v>
       </c>
-      <c r="M9" s="83"/>
-      <c r="N9" s="89">
+      <c r="N9" s="83"/>
+      <c r="O9" s="89">
         <f>AVERAGE(49.33,51.9)</f>
         <v>50.614999999999995</v>
       </c>
-      <c r="O9" s="84">
-        <f>N9/J9*1000</f>
+      <c r="P9" s="84">
+        <f>O9/K9*1000</f>
         <v>6142.59708737864</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="B10" s="58" t="str">
         <f>SEC_Processes!D10</f>
         <v>MIN_NAT_GAS</v>
@@ -4830,27 +4839,28 @@
         <f>28.7719437401575</f>
         <v>28.7719437401575</v>
       </c>
-      <c r="F10" s="78">
-        <f>(K10*M10)*10^-9</f>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78">
+        <f>(L10*N10)*10^-9</f>
         <v>165.25120000000001</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="I10" s="88" t="s">
+      <c r="H10" s="59"/>
+      <c r="J10" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="83"/>
-      <c r="K10" s="90">
+      <c r="K10" s="83"/>
+      <c r="L10" s="90">
         <v>36.56</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83">
+      <c r="M10" s="83"/>
+      <c r="N10" s="83">
         <f>4.52*10^9</f>
         <v>4520000000</v>
       </c>
-      <c r="N10" s="84"/>
       <c r="O10" s="84"/>
-    </row>
-    <row r="11" spans="1:22" ht="27.6" customHeight="1">
+      <c r="P10" s="84"/>
+    </row>
+    <row r="11" spans="1:23" ht="27.6" customHeight="1">
       <c r="B11" s="60" t="str">
         <f>SEC_Processes!D11</f>
         <v>MIN_BIOM</v>
@@ -4866,19 +4876,20 @@
       <c r="E11" s="76">
         <v>33.305052330677292</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="76"/>
+      <c r="G11" s="76">
         <f>450</f>
         <v>450</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="J11" s="86" t="s">
+      <c r="H11" s="61"/>
+      <c r="K11" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="82"/>
       <c r="L11" s="82"/>
       <c r="M11" s="82"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1">
+      <c r="N11" s="82"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="B12" s="58" t="str">
         <f>SEC_Processes!D12</f>
         <v>MIN_WIND_ON</v>
@@ -4893,18 +4904,19 @@
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="78"/>
-      <c r="G12" s="59"/>
-      <c r="I12" s="91" t="s">
+      <c r="G12" s="78"/>
+      <c r="H12" s="59"/>
+      <c r="J12" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="J12" s="83">
+      <c r="K12" s="83">
         <v>3456</v>
       </c>
-      <c r="K12" s="82"/>
       <c r="L12" s="82"/>
       <c r="M12" s="82"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="N12" s="82"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="B13" s="60" t="str">
         <f>SEC_Processes!D13</f>
         <v>MIN_HYDRO</v>
@@ -4919,9 +4931,10 @@
       </c>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="61"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="G13" s="76"/>
+      <c r="H13" s="61"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="B14" s="58" t="str">
         <f>SEC_Processes!D14</f>
         <v>MIN_SOLAR</v>
@@ -4936,9 +4949,10 @@
       </c>
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
-      <c r="G14" s="59"/>
-    </row>
-    <row r="15" spans="1:22" ht="25.5">
+      <c r="G14" s="78"/>
+      <c r="H14" s="59"/>
+    </row>
+    <row r="15" spans="1:23" ht="25.5">
       <c r="B15" s="60" t="str">
         <f>SEC_Processes!D15</f>
         <v>MIN_OTH</v>
@@ -4953,19 +4967,20 @@
       </c>
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="61"/>
-      <c r="I15" s="92" t="s">
+      <c r="G15" s="76"/>
+      <c r="H15" s="61"/>
+      <c r="J15" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="J15" s="92" t="s">
+      <c r="K15" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="K15" s="92">
+      <c r="L15" s="92">
         <v>3.9799075396825372</v>
       </c>
-      <c r="L15" s="92"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" thickBot="1">
+      <c r="M15" s="92"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.5" thickBot="1">
       <c r="B16" s="79" t="str">
         <f>SEC_Processes!D16</f>
         <v>IMP_URAN</v>
@@ -4982,41 +4997,42 @@
         <v>7.7638578346456697</v>
       </c>
       <c r="F16" s="81"/>
-      <c r="G16" s="68"/>
-      <c r="I16" s="92">
+      <c r="G16" s="81"/>
+      <c r="H16" s="68"/>
+      <c r="J16" s="92">
         <v>80.5</v>
       </c>
-      <c r="J16" s="92" t="s">
+      <c r="K16" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="92">
+      <c r="L16" s="92">
         <v>0.45359237000000002</v>
       </c>
-      <c r="L16" s="92" t="s">
+      <c r="M16" s="92" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="9:12" ht="25.5">
-      <c r="I17" s="92" t="s">
+    <row r="17" spans="10:13" ht="25.5">
+      <c r="J17" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="93" t="s">
+      <c r="K17" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="K17" s="92"/>
       <c r="L17" s="92"/>
-    </row>
-    <row r="18" spans="9:12">
-      <c r="I18" s="92">
-        <f>I16*K15/K16</f>
+      <c r="M17" s="92"/>
+    </row>
+    <row r="18" spans="10:13">
+      <c r="J18" s="92">
+        <f>J16*L15/L16</f>
         <v>706.32263268547524</v>
       </c>
-      <c r="J18" s="93">
-        <f>I18/J12</f>
+      <c r="K18" s="93">
+        <f>J18/K12</f>
         <v>0.20437576177241759</v>
       </c>
-      <c r="K18" s="92"/>
       <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
